--- a/data/spreadsheets/Material.xlsx
+++ b/data/spreadsheets/Material.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1CEEFE-3A5E-754A-8B77-41B747E82494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE5267-3AE0-F34F-87BD-9721A53F4B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29840" yWindow="3500" windowWidth="42340" windowHeight="24160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -60,9 +71,6 @@
     <t>import_archive.xml</t>
   </si>
   <si>
-    <t>data/XML/</t>
-  </si>
-  <si>
     <t>DaSCH</t>
   </si>
   <si>
@@ -370,6 +378,9 @@
   </si>
   <si>
     <t>AudioSegment.csv</t>
+  </si>
+  <si>
+    <t>data/xml/</t>
   </si>
 </sst>
 </file>
@@ -618,13 +629,14 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="7" max="7" width="78.140625" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" customWidth="1"/>
   </cols>
@@ -666,775 +678,775 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
         <v>98</v>
       </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" t="s">
-        <v>102</v>
-      </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
         <v>113</v>
       </c>
-      <c r="C35" t="s">
-        <v>114</v>
-      </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Material.xlsx
+++ b/data/spreadsheets/Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE5267-3AE0-F34F-87BD-9721A53F4B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D2844-8AB1-F24A-99A5-24352857C0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>Archive.csv</t>
   </si>
   <si>
-    <t>Nodegoat/</t>
-  </si>
-  <si>
     <t>MAT_016</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>data/xml/</t>
+  </si>
+  <si>
+    <t>nodegoat/</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -701,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -724,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -770,7 +770,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -816,7 +816,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -839,7 +839,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -862,7 +862,7 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -885,7 +885,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -908,7 +908,7 @@
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -954,7 +954,7 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -977,7 +977,7 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -994,13 +994,13 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1014,16 +1014,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -1046,7 +1046,7 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1083,16 +1083,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1106,16 +1106,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1152,16 +1152,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1175,16 +1175,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1198,16 +1198,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1221,16 +1221,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1244,16 +1244,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1290,16 +1290,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
         <v>88</v>
       </c>
-      <c r="C29" t="s">
-        <v>89</v>
-      </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1336,16 +1336,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1359,16 +1359,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1382,16 +1382,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
         <v>100</v>
       </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1405,16 +1405,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1428,16 +1428,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
         <v>112</v>
       </c>
-      <c r="C35" t="s">
-        <v>113</v>
-      </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>

--- a/data/spreadsheets/Material.xlsx
+++ b/data/spreadsheets/Material.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1CEEFE-3A5E-754A-8B77-41B747E82494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D2844-8AB1-F24A-99A5-24352857C0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29840" yWindow="3500" windowWidth="42340" windowHeight="24160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -60,9 +71,6 @@
     <t>import_archive.xml</t>
   </si>
   <si>
-    <t>data/XML/</t>
-  </si>
-  <si>
     <t>DaSCH</t>
   </si>
   <si>
@@ -198,9 +206,6 @@
     <t>Archive.csv</t>
   </si>
   <si>
-    <t>Nodegoat/</t>
-  </si>
-  <si>
     <t>MAT_016</t>
   </si>
   <si>
@@ -370,6 +375,12 @@
   </si>
   <si>
     <t>AudioSegment.csv</t>
+  </si>
+  <si>
+    <t>data/xml/</t>
+  </si>
+  <si>
+    <t>nodegoat/</t>
   </si>
 </sst>
 </file>
@@ -618,13 +629,14 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="7" max="7" width="78.140625" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" customWidth="1"/>
   </cols>
@@ -666,775 +678,775 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
         <v>110</v>
       </c>
-      <c r="B34" t="s">
-        <v>112</v>
-      </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
         <v>111</v>
       </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Material.xlsx
+++ b/data/spreadsheets/Material.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D2844-8AB1-F24A-99A5-24352857C0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D735BEF-3432-4F4B-B851-6E23DC2F88E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41040" yWindow="3880" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -65,12 +65,6 @@
     <t>MAT_001</t>
   </si>
   <si>
-    <t>xml import script for Archive class</t>
-  </si>
-  <si>
-    <t>import_archive.xml</t>
-  </si>
-  <si>
     <t>DaSCH</t>
   </si>
   <si>
@@ -83,120 +77,42 @@
     <t>MAT_002</t>
   </si>
   <si>
-    <t>xml import script for Audio class</t>
-  </si>
-  <si>
-    <t>import_audio.xml</t>
-  </si>
-  <si>
     <t>MAT_003</t>
   </si>
   <si>
-    <t>xml import script for Book Chapter class</t>
-  </si>
-  <si>
-    <t>import_book_chapter.xml</t>
-  </si>
-  <si>
     <t>MAT_004</t>
   </si>
   <si>
-    <t>xml import script for Book Cover class</t>
-  </si>
-  <si>
-    <t>import_book_cover.xml</t>
-  </si>
-  <si>
     <t>MAT_005</t>
   </si>
   <si>
-    <t>xml import script for Book Edition class</t>
-  </si>
-  <si>
-    <t>import_book_edition.xml</t>
-  </si>
-  <si>
     <t>MAT_006</t>
   </si>
   <si>
-    <t>xml import script for Book class</t>
-  </si>
-  <si>
-    <t>import_book.xml</t>
-  </si>
-  <si>
     <t>MAT_007</t>
   </si>
   <si>
-    <t>xml import script for Character class</t>
-  </si>
-  <si>
-    <t>import_character.xml</t>
-  </si>
-  <si>
     <t>MAT_008</t>
   </si>
   <si>
-    <t>xml import script for Documentation class</t>
-  </si>
-  <si>
-    <t>import_documentation.xml</t>
-  </si>
-  <si>
     <t>MAT_009</t>
   </si>
   <si>
-    <t>xml import script for Event class</t>
-  </si>
-  <si>
-    <t>import_event.xml</t>
-  </si>
-  <si>
     <t>MAT_010</t>
   </si>
   <si>
-    <t>xml import script for Image class</t>
-  </si>
-  <si>
-    <t>import_image.xml</t>
-  </si>
-  <si>
     <t>MAT_011</t>
   </si>
   <si>
-    <t>xml import script for Location class</t>
-  </si>
-  <si>
-    <t>import_location.xml</t>
-  </si>
-  <si>
     <t>MAT_012</t>
   </si>
   <si>
-    <t>xml import script for Material class</t>
-  </si>
-  <si>
-    <t>import_material.xml</t>
-  </si>
-  <si>
     <t>MAT_013</t>
   </si>
   <si>
-    <t>xml import script for Region of Image class</t>
-  </si>
-  <si>
-    <t>import_region.xml</t>
-  </si>
-  <si>
     <t>MAT_014</t>
   </si>
   <si>
-    <t>xml import script for Video class</t>
-  </si>
-  <si>
-    <t>import_video.xml</t>
-  </si>
-  <si>
     <t>MAT_015</t>
   </si>
   <si>
@@ -242,132 +158,75 @@
     <t>BookEdition.csv</t>
   </si>
   <si>
-    <t>MAT_020</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Character class</t>
   </si>
   <si>
     <t>Character.csv</t>
   </si>
   <si>
-    <t>MAT_021</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Documentation class</t>
   </si>
   <si>
     <t>Documentation.csv</t>
   </si>
   <si>
-    <t>MAT_022</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Event class</t>
   </si>
   <si>
     <t>Event.csv</t>
   </si>
   <si>
-    <t>MAT_023</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Image class</t>
   </si>
   <si>
     <t>Image.csv</t>
   </si>
   <si>
-    <t>MAT_024</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Event Type list</t>
   </si>
   <si>
     <t>List_Event_Type.csv</t>
   </si>
   <si>
-    <t>MAT_025</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for License list class</t>
   </si>
   <si>
     <t>List_License.csv</t>
   </si>
   <si>
-    <t>MAT_026</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Role list class</t>
   </si>
   <si>
     <t>List_Role.csv</t>
   </si>
   <si>
-    <t>MAT_027</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Location class</t>
   </si>
   <si>
     <t>Location.csv</t>
   </si>
   <si>
-    <t>MAT_028</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Material class</t>
   </si>
   <si>
     <t>Material.csv</t>
   </si>
   <si>
-    <t>MAT_029</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Region of Image class</t>
   </si>
   <si>
     <t>Region.csv</t>
   </si>
   <si>
-    <t>MAT_030</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Video class</t>
   </si>
   <si>
     <t>Video.csv</t>
   </si>
   <si>
-    <t>MAT_031</t>
-  </si>
-  <si>
-    <t>MAT_032</t>
-  </si>
-  <si>
-    <t>xml import script for Audio Segment class</t>
-  </si>
-  <si>
-    <t>xml import script for Video Segment class</t>
-  </si>
-  <si>
     <t>VideoSegment.csv</t>
   </si>
   <si>
-    <t>import_audio_segment.xml</t>
-  </si>
-  <si>
-    <t>import_video_segment.xml</t>
-  </si>
-  <si>
-    <t>MAT_033</t>
-  </si>
-  <si>
-    <t>MAT_034</t>
-  </si>
-  <si>
     <t>csv file for Nodegoat import for Segment of Video class</t>
   </si>
   <si>
@@ -377,10 +236,13 @@
     <t>AudioSegment.csv</t>
   </si>
   <si>
-    <t>data/xml/</t>
-  </si>
-  <si>
     <t>nodegoat/</t>
+  </si>
+  <si>
+    <t>xml file used for the import of data on DSP</t>
+  </si>
+  <si>
+    <t>daschland_data.xml</t>
   </si>
 </sst>
 </file>
@@ -626,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -672,781 +534,433 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Material.xlsx
+++ b/data/spreadsheets/Material.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Audio.csv</t>
-  </si>
-  <si>
-    <t>nodegoat/</t>
   </si>
   <si>
     <t>MAT_004</t>
@@ -686,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -701,16 +698,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -725,16 +722,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -749,16 +746,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -773,16 +770,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -797,16 +794,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -821,16 +818,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -845,16 +842,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -869,16 +866,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -893,16 +890,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -917,16 +914,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -941,16 +938,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -965,16 +962,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -989,16 +986,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -1013,16 +1010,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -1037,16 +1034,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -1061,16 +1058,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>

--- a/data/spreadsheets/Material.xlsx
+++ b/data/spreadsheets/Material.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10817"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88A9CE3-8858-F34C-A605-A53A5B9D0206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="18840" yWindow="500" windowWidth="42100" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -221,13 +227,15 @@
   </si>
   <si>
     <t>AudioSegment.csv</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,26 +279,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -301,10 +306,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -342,71 +347,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,7 +439,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -457,11 +462,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -470,13 +475,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +491,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +500,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +509,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -512,10 +517,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -580,27 +585,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="53.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="35.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="78.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,462 +632,503 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="2" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="2" t="s">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="2" t="s">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="2" t="s">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="2" t="s">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="2" t="s">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="2" t="s">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="2" t="s">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="2" t="s">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="2" t="s">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="2" t="s">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="2" t="s">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="2" t="s">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="2" t="s">
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="2" t="s">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="2" t="s">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/spreadsheets/Material.xlsx
+++ b/data/spreadsheets/Material.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88A9CE3-8858-F34C-A605-A53A5B9D0206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EC5E3F-1156-F84B-8BB7-408BFE31095D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18840" yWindow="500" windowWidth="42100" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>xml file used for the import of data on DSP</t>
   </si>
   <si>
-    <t>daschland_data.xml</t>
-  </si>
-  <si>
     <t>DaSCH</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>data_daschland.xml</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -644,487 +644,487 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Material.xlsx
+++ b/data/spreadsheets/Material.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EC5E3F-1156-F84B-8BB7-408BFE31095D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978BC7AB-E218-384E-BFB8-2C755DCF7030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="500" windowWidth="42100" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18840" yWindow="620" windowWidth="42100" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Archive.csv</t>
   </si>
   <si>
-    <t>data/nodegoat/</t>
-  </si>
-  <si>
     <t>MAT_003</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>data_daschland.xml</t>
+  </si>
+  <si>
+    <t>data/spreadsheets/</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -670,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -687,16 +687,16 @@
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -713,16 +713,16 @@
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -739,16 +739,16 @@
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -765,16 +765,16 @@
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -817,16 +817,16 @@
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -843,16 +843,16 @@
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -895,16 +895,16 @@
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -947,16 +947,16 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -973,16 +973,16 @@
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -999,16 +999,16 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1051,16 +1051,16 @@
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1103,16 +1103,16 @@
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
